--- a/mathTransformed/HMPSTT_(2018-12-14)_30_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-12-14)_30_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S SathenahallyNagamangala</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. High School KunduruMalavalli</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -554,6 +570,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (R M S A) Malavalli</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -581,6 +602,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S SanababadavanePandavapur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -608,6 +634,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School HuskuruMalavalli</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -635,6 +666,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S BillenahallyK R Pet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -659,6 +695,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>St. Josephs High School Mandya</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -686,6 +727,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G J CHalaguruMalavalli</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -713,6 +759,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S MadapuraK R Pete</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -740,6 +791,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S NiluvagiluMaddur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -764,6 +820,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S ThaggahalliMaddur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -791,6 +852,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H P SChowdenahallyK R pete</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -818,6 +884,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G J C BesagarahallyMaddur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -845,6 +916,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G J C H S KadabahalliNagamangalli</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -872,6 +948,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S KallahallyMandya South</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -899,6 +980,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Gov.t High School SanthekasalagereMandya south</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -926,6 +1012,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Government High SchoolKirugavaluMalavalli</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -953,6 +1044,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Govt. High School HadlyMalavally</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -980,6 +1076,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S KandegalaMalavalli</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1007,6 +1108,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S KoochahallyNagamangala</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1034,6 +1140,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S BoppasamudraMaddur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1061,6 +1172,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G J C Police ColonyMandya South</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1088,6 +1204,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S GejjalagereMaddur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1115,6 +1236,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G J C BesagarahalliMaddur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1142,6 +1268,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. P U College AnnurMaddur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1169,6 +1300,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G J C ChandupuraMaddur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1196,6 +1332,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G J C KodiyalaS R Patna</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1223,6 +1364,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. High School BheemanahalliMalavalli</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1250,6 +1396,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G G H SK R Pet</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Mandya</t>
         </is>
       </c>
@@ -1273,6 +1424,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>R D S Govt. Girls High School Belur Nagamangala</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Mandya</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-12-14)_30_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-12-14)_30_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
